--- a/data/pca/factorExposure/factorExposure_2015-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01866767391563962</v>
+        <v>0.008241159452895179</v>
       </c>
       <c r="C2">
-        <v>0.02201083492616855</v>
+        <v>-0.0503057163189076</v>
       </c>
       <c r="D2">
-        <v>0.1106556088209465</v>
+        <v>0.1362807348601642</v>
       </c>
       <c r="E2">
-        <v>-0.006077292121614739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.007719318760422387</v>
+      </c>
+      <c r="F2">
+        <v>0.01662603551211495</v>
+      </c>
+      <c r="G2">
+        <v>0.1224179797865566</v>
+      </c>
+      <c r="H2">
+        <v>0.06357288536110264</v>
+      </c>
+      <c r="I2">
+        <v>0.04530808184959307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.005387421062556194</v>
+        <v>-0.005146770223597914</v>
       </c>
       <c r="C3">
-        <v>0.007798894642596059</v>
+        <v>-0.002136802936009149</v>
       </c>
       <c r="D3">
-        <v>-0.004715003816456357</v>
+        <v>0.001892266872541883</v>
       </c>
       <c r="E3">
-        <v>-0.0006177087115433882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.012263616928981</v>
+      </c>
+      <c r="F3">
+        <v>-0.008115109943472964</v>
+      </c>
+      <c r="G3">
+        <v>-0.005630103139503042</v>
+      </c>
+      <c r="H3">
+        <v>-0.01700888396495597</v>
+      </c>
+      <c r="I3">
+        <v>0.007987361888403018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04507425774366643</v>
+        <v>0.01865762485540081</v>
       </c>
       <c r="C4">
-        <v>0.06869835777844939</v>
+        <v>-0.09960874149174034</v>
       </c>
       <c r="D4">
-        <v>0.1321506895092984</v>
+        <v>0.1383313797524274</v>
       </c>
       <c r="E4">
-        <v>-0.08079568013367494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01515378075041995</v>
+      </c>
+      <c r="F4">
+        <v>0.08623429969266583</v>
+      </c>
+      <c r="G4">
+        <v>0.004639063517499222</v>
+      </c>
+      <c r="H4">
+        <v>0.05071204735334172</v>
+      </c>
+      <c r="I4">
+        <v>-0.06002009356115842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02335593793327652</v>
+        <v>0.02647636420857756</v>
       </c>
       <c r="C6">
-        <v>0.01244722803895564</v>
+        <v>-0.03072691987594846</v>
       </c>
       <c r="D6">
-        <v>0.1387961309804129</v>
+        <v>0.1282499012372198</v>
       </c>
       <c r="E6">
-        <v>-0.03685526751017767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04651046614297106</v>
+      </c>
+      <c r="F6">
+        <v>0.05143819557606589</v>
+      </c>
+      <c r="G6">
+        <v>0.004412350338828202</v>
+      </c>
+      <c r="H6">
+        <v>0.06962405492630903</v>
+      </c>
+      <c r="I6">
+        <v>0.001857258510756559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.006734414462811543</v>
+        <v>0.008821006623188316</v>
       </c>
       <c r="C7">
-        <v>0.02220018285240342</v>
+        <v>-0.03242377445987676</v>
       </c>
       <c r="D7">
-        <v>0.1125099901953536</v>
+        <v>0.1005024322287996</v>
       </c>
       <c r="E7">
-        <v>-0.001621853535123771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05107647296488493</v>
+      </c>
+      <c r="F7">
+        <v>0.00845315964030445</v>
+      </c>
+      <c r="G7">
+        <v>-0.008917509897054372</v>
+      </c>
+      <c r="H7">
+        <v>0.07853801427889878</v>
+      </c>
+      <c r="I7">
+        <v>0.01658693213304912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002350546225312179</v>
+        <v>-0.01170069086592595</v>
       </c>
       <c r="C8">
-        <v>0.02575070526268978</v>
+        <v>-0.03236575206803304</v>
       </c>
       <c r="D8">
-        <v>0.08037607989043243</v>
+        <v>0.07858807447401099</v>
       </c>
       <c r="E8">
-        <v>-0.02437456458635991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02020759891094443</v>
+      </c>
+      <c r="F8">
+        <v>0.04260272628271862</v>
+      </c>
+      <c r="G8">
+        <v>0.06285264382248533</v>
+      </c>
+      <c r="H8">
+        <v>0.002432981994133874</v>
+      </c>
+      <c r="I8">
+        <v>0.02541051042966824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03875432889789637</v>
+        <v>0.01371708966483506</v>
       </c>
       <c r="C9">
-        <v>0.05841646303246269</v>
+        <v>-0.08299168989076425</v>
       </c>
       <c r="D9">
-        <v>0.1317048154774886</v>
+        <v>0.1196148012060782</v>
       </c>
       <c r="E9">
-        <v>-0.06487055878828475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.005740559748331385</v>
+      </c>
+      <c r="F9">
+        <v>0.05619850450192148</v>
+      </c>
+      <c r="G9">
+        <v>-0.01590527870940929</v>
+      </c>
+      <c r="H9">
+        <v>0.06230808697172675</v>
+      </c>
+      <c r="I9">
+        <v>-0.02408049900923697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1562049140283538</v>
+        <v>0.2325512220596265</v>
       </c>
       <c r="C10">
-        <v>-0.178724686659556</v>
+        <v>0.1009325798056875</v>
       </c>
       <c r="D10">
-        <v>0.008029739179917821</v>
+        <v>-0.005135559823820773</v>
       </c>
       <c r="E10">
-        <v>-0.04791453902895193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02689993051291769</v>
+      </c>
+      <c r="F10">
+        <v>0.04046741482358321</v>
+      </c>
+      <c r="G10">
+        <v>0.004132752521337791</v>
+      </c>
+      <c r="H10">
+        <v>-0.0664979419655327</v>
+      </c>
+      <c r="I10">
+        <v>0.08891075352884843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02163683364143961</v>
+        <v>0.009114368435301079</v>
       </c>
       <c r="C11">
-        <v>0.03933853562703304</v>
+        <v>-0.05212894902903788</v>
       </c>
       <c r="D11">
-        <v>0.05005479917752823</v>
+        <v>0.0432691602247401</v>
       </c>
       <c r="E11">
-        <v>0.01549400938231199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01982603886929429</v>
+      </c>
+      <c r="F11">
+        <v>-0.01162552592959533</v>
+      </c>
+      <c r="G11">
+        <v>-0.004600495772468755</v>
+      </c>
+      <c r="H11">
+        <v>0.05006709036228259</v>
+      </c>
+      <c r="I11">
+        <v>-0.05197642582256878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02357320727150172</v>
+        <v>0.01015873730327837</v>
       </c>
       <c r="C12">
-        <v>0.03972390938834209</v>
+        <v>-0.04897403797552759</v>
       </c>
       <c r="D12">
-        <v>0.06337077044553278</v>
+        <v>0.04887718426834242</v>
       </c>
       <c r="E12">
-        <v>0.006156980558749394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01943854693308817</v>
+      </c>
+      <c r="F12">
+        <v>-0.01757761202443799</v>
+      </c>
+      <c r="G12">
+        <v>-0.02614591962087272</v>
+      </c>
+      <c r="H12">
+        <v>0.07173169254382104</v>
+      </c>
+      <c r="I12">
+        <v>-0.02880172926937801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005440046800964315</v>
+        <v>-0.002262192701675438</v>
       </c>
       <c r="C13">
-        <v>0.02298007007561858</v>
+        <v>-0.04104057926670979</v>
       </c>
       <c r="D13">
-        <v>0.1476011822044387</v>
+        <v>0.148644922903106</v>
       </c>
       <c r="E13">
-        <v>-0.03561126832894921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03730054504891534</v>
+      </c>
+      <c r="F13">
+        <v>0.03868495399982996</v>
+      </c>
+      <c r="G13">
+        <v>0.03551402663700404</v>
+      </c>
+      <c r="H13">
+        <v>0.08370501101634678</v>
+      </c>
+      <c r="I13">
+        <v>0.119415810875098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003530769475413899</v>
+        <v>-0.001737637303337914</v>
       </c>
       <c r="C14">
-        <v>0.01788415310441748</v>
+        <v>-0.0264740673002655</v>
       </c>
       <c r="D14">
-        <v>0.09861793881523993</v>
+        <v>0.1032835795455717</v>
       </c>
       <c r="E14">
-        <v>-0.009686010612437243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02946673795698185</v>
+      </c>
+      <c r="F14">
+        <v>0.02869193615897701</v>
+      </c>
+      <c r="G14">
+        <v>0.01759766184966317</v>
+      </c>
+      <c r="H14">
+        <v>0.133237618583062</v>
+      </c>
+      <c r="I14">
+        <v>0.01843546470584228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001376678054317202</v>
+        <v>-0.00129118239481865</v>
       </c>
       <c r="C15">
-        <v>0.01023293494583138</v>
+        <v>-0.01977208211745492</v>
       </c>
       <c r="D15">
-        <v>0.02687396514075401</v>
+        <v>0.05459162790859132</v>
       </c>
       <c r="E15">
-        <v>0.003020109500594789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.005911470100649035</v>
+      </c>
+      <c r="F15">
+        <v>0.004734766504996947</v>
+      </c>
+      <c r="G15">
+        <v>0.02329749956938754</v>
+      </c>
+      <c r="H15">
+        <v>0.02873322446184767</v>
+      </c>
+      <c r="I15">
+        <v>-0.01835595087886841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02183314432289105</v>
+        <v>0.009934057702573043</v>
       </c>
       <c r="C16">
-        <v>0.03743236309590605</v>
+        <v>-0.04785738246588153</v>
       </c>
       <c r="D16">
-        <v>0.05676051457138553</v>
+        <v>0.04500849624117026</v>
       </c>
       <c r="E16">
-        <v>0.008672331739612389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02139535373788775</v>
+      </c>
+      <c r="F16">
+        <v>-0.008420435328094687</v>
+      </c>
+      <c r="G16">
+        <v>-0.01674192535538637</v>
+      </c>
+      <c r="H16">
+        <v>0.05454784846270366</v>
+      </c>
+      <c r="I16">
+        <v>-0.0463730270833013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006138313091714189</v>
+        <v>0.0004100494926506595</v>
       </c>
       <c r="C19">
-        <v>0.01953763788507695</v>
+        <v>-0.01857077201322659</v>
       </c>
       <c r="D19">
-        <v>0.1084795291817662</v>
+        <v>0.06998064410023094</v>
       </c>
       <c r="E19">
-        <v>-0.04411897438365278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02074975661625323</v>
+      </c>
+      <c r="F19">
+        <v>0.007058918779896876</v>
+      </c>
+      <c r="G19">
+        <v>0.01023399462134943</v>
+      </c>
+      <c r="H19">
+        <v>0.06668149715197069</v>
+      </c>
+      <c r="I19">
+        <v>0.04513910735445859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004844814162830957</v>
+        <v>0.003644636470084992</v>
       </c>
       <c r="C20">
-        <v>0.02413884584417709</v>
+        <v>-0.03715434134547687</v>
       </c>
       <c r="D20">
-        <v>0.08889490813131085</v>
+        <v>0.09552215313828148</v>
       </c>
       <c r="E20">
-        <v>-0.03460974367881681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008205932916149796</v>
+      </c>
+      <c r="F20">
+        <v>0.02623102796382394</v>
+      </c>
+      <c r="G20">
+        <v>-0.004908605506906429</v>
+      </c>
+      <c r="H20">
+        <v>0.05944867612988381</v>
+      </c>
+      <c r="I20">
+        <v>-0.02363127340314008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007958463961194791</v>
+        <v>0.001710881981875083</v>
       </c>
       <c r="C21">
-        <v>0.0287496303911222</v>
+        <v>-0.03839217329242067</v>
       </c>
       <c r="D21">
-        <v>0.1630424410597189</v>
+        <v>0.1312563298549774</v>
       </c>
       <c r="E21">
-        <v>-0.07325551882322996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0001609212019492695</v>
+      </c>
+      <c r="F21">
+        <v>0.07851088021077479</v>
+      </c>
+      <c r="G21">
+        <v>0.02333589983321795</v>
+      </c>
+      <c r="H21">
+        <v>0.1987452780790686</v>
+      </c>
+      <c r="I21">
+        <v>0.1660989331229139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002613636122292636</v>
+        <v>-0.01121107022834845</v>
       </c>
       <c r="C22">
-        <v>0.06073615135431607</v>
+        <v>-0.08248486069834668</v>
       </c>
       <c r="D22">
-        <v>0.2362158666224173</v>
+        <v>0.2718180417215159</v>
       </c>
       <c r="E22">
-        <v>0.02159635438416146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04792705817659527</v>
+      </c>
+      <c r="F22">
+        <v>0.03613866125133008</v>
+      </c>
+      <c r="G22">
+        <v>0.3522564146804323</v>
+      </c>
+      <c r="H22">
+        <v>-0.3831216596878926</v>
+      </c>
+      <c r="I22">
+        <v>-0.127902384369142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00288073375863905</v>
+        <v>-0.01081676233603967</v>
       </c>
       <c r="C23">
-        <v>0.06121605830461277</v>
+        <v>-0.08349815325045182</v>
       </c>
       <c r="D23">
-        <v>0.2357741798289323</v>
+        <v>0.2725429512958062</v>
       </c>
       <c r="E23">
-        <v>0.02142612815661459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04462973676541594</v>
+      </c>
+      <c r="F23">
+        <v>0.03570355262403443</v>
+      </c>
+      <c r="G23">
+        <v>0.3517984295008345</v>
+      </c>
+      <c r="H23">
+        <v>-0.3832409529395809</v>
+      </c>
+      <c r="I23">
+        <v>-0.1285770978550053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02824146116787892</v>
+        <v>0.008950618662726747</v>
       </c>
       <c r="C24">
-        <v>0.05569344530230444</v>
+        <v>-0.06483967532587157</v>
       </c>
       <c r="D24">
-        <v>0.06908145737083356</v>
+        <v>0.05267269481384166</v>
       </c>
       <c r="E24">
-        <v>0.004426447485323656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02529790249071293</v>
+      </c>
+      <c r="F24">
+        <v>-0.005835961352914732</v>
+      </c>
+      <c r="G24">
+        <v>-0.008459874749498131</v>
+      </c>
+      <c r="H24">
+        <v>0.08032259453316212</v>
+      </c>
+      <c r="I24">
+        <v>-0.04170618068515024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02984162578049456</v>
+        <v>0.01280405377657928</v>
       </c>
       <c r="C25">
-        <v>0.04675945380339668</v>
+        <v>-0.06002565526927398</v>
       </c>
       <c r="D25">
-        <v>0.06197142437708241</v>
+        <v>0.05096659164741837</v>
       </c>
       <c r="E25">
-        <v>0.0003274117249302928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01235355024265093</v>
+      </c>
+      <c r="F25">
+        <v>-0.007904290699399642</v>
+      </c>
+      <c r="G25">
+        <v>-0.01453907993372035</v>
+      </c>
+      <c r="H25">
+        <v>0.04625599883682974</v>
+      </c>
+      <c r="I25">
+        <v>-0.03166321911219137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00961120429646376</v>
+        <v>0.006654086265917628</v>
       </c>
       <c r="C26">
-        <v>0.01416096230842228</v>
+        <v>-0.02462979655677948</v>
       </c>
       <c r="D26">
-        <v>0.08228084691233141</v>
+        <v>0.06971867139944288</v>
       </c>
       <c r="E26">
-        <v>-0.01881633026411402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02639833249834636</v>
+      </c>
+      <c r="F26">
+        <v>0.02256046938300424</v>
+      </c>
+      <c r="G26">
+        <v>-0.008858955757949682</v>
+      </c>
+      <c r="H26">
+        <v>0.09048022436096131</v>
+      </c>
+      <c r="I26">
+        <v>0.040161866404897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2404596065046413</v>
+        <v>0.318266445387247</v>
       </c>
       <c r="C28">
-        <v>-0.2201083187685672</v>
+        <v>0.1016194331030673</v>
       </c>
       <c r="D28">
-        <v>0.018338924638258</v>
+        <v>-0.006046748978675786</v>
       </c>
       <c r="E28">
-        <v>-0.06901361610409348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05958994840733648</v>
+      </c>
+      <c r="F28">
+        <v>0.0387629543590057</v>
+      </c>
+      <c r="G28">
+        <v>0.03136933687975834</v>
+      </c>
+      <c r="H28">
+        <v>-0.01201188679985768</v>
+      </c>
+      <c r="I28">
+        <v>0.126330099619878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>9.892917389315483e-05</v>
+        <v>-0.002981839775582574</v>
       </c>
       <c r="C29">
-        <v>0.02125953133289636</v>
+        <v>-0.02930357103024298</v>
       </c>
       <c r="D29">
-        <v>0.09611508875159509</v>
+        <v>0.09941764809753086</v>
       </c>
       <c r="E29">
-        <v>-0.01464705064655321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.03905067069929278</v>
+      </c>
+      <c r="F29">
+        <v>0.03658885847970264</v>
+      </c>
+      <c r="G29">
+        <v>0.006919308526401445</v>
+      </c>
+      <c r="H29">
+        <v>0.1427537176663174</v>
+      </c>
+      <c r="I29">
+        <v>0.0185038053766381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02592169419981701</v>
+        <v>0.01436197673880258</v>
       </c>
       <c r="C30">
-        <v>0.05705853712687953</v>
+        <v>-0.08264542396911129</v>
       </c>
       <c r="D30">
-        <v>0.1644137612910853</v>
+        <v>0.160515563727806</v>
       </c>
       <c r="E30">
-        <v>-0.02263921263329269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03952550538984193</v>
+      </c>
+      <c r="F30">
+        <v>0.03634667761292359</v>
+      </c>
+      <c r="G30">
+        <v>0.03010954039193701</v>
+      </c>
+      <c r="H30">
+        <v>0.06176204833150085</v>
+      </c>
+      <c r="I30">
+        <v>-0.07121585925321615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04609643419748793</v>
+        <v>0.009851071042284129</v>
       </c>
       <c r="C31">
-        <v>0.08309627365410849</v>
+        <v>-0.09210746673563054</v>
       </c>
       <c r="D31">
-        <v>0.06935012648931428</v>
+        <v>0.04108082057979728</v>
       </c>
       <c r="E31">
-        <v>-0.01222713361840521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008977027605707004</v>
+      </c>
+      <c r="F31">
+        <v>0.01076702592965717</v>
+      </c>
+      <c r="G31">
+        <v>0.003997836441499464</v>
+      </c>
+      <c r="H31">
+        <v>0.04498054471096979</v>
+      </c>
+      <c r="I31">
+        <v>0.0558248604549637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0214483290660689</v>
+        <v>0.01097868155784708</v>
       </c>
       <c r="C32">
-        <v>0.03014346896688146</v>
+        <v>-0.04327827986677263</v>
       </c>
       <c r="D32">
-        <v>0.1050890684665703</v>
+        <v>0.1111808929343846</v>
       </c>
       <c r="E32">
-        <v>-0.06939260591014736</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004551914347318602</v>
+      </c>
+      <c r="F32">
+        <v>0.04600016049133215</v>
+      </c>
+      <c r="G32">
+        <v>0.02166814422004094</v>
+      </c>
+      <c r="H32">
+        <v>0.0446082813731662</v>
+      </c>
+      <c r="I32">
+        <v>0.07561208419819389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01392174158836374</v>
+        <v>0.005893847539462764</v>
       </c>
       <c r="C33">
-        <v>0.03970160493643714</v>
+        <v>-0.05495380606057809</v>
       </c>
       <c r="D33">
-        <v>0.1407346924739445</v>
+        <v>0.1243250895608382</v>
       </c>
       <c r="E33">
-        <v>-0.04025783894931945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01636314450675149</v>
+      </c>
+      <c r="F33">
+        <v>0.02544838769634666</v>
+      </c>
+      <c r="G33">
+        <v>0.001802687235066653</v>
+      </c>
+      <c r="H33">
+        <v>0.06889724856298016</v>
+      </c>
+      <c r="I33">
+        <v>0.006641606883843959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02540581960143824</v>
+        <v>0.006405141913787609</v>
       </c>
       <c r="C34">
-        <v>0.05783201295049323</v>
+        <v>-0.0618485172378585</v>
       </c>
       <c r="D34">
-        <v>0.05107147683133021</v>
+        <v>0.03063966413897246</v>
       </c>
       <c r="E34">
-        <v>0.04731666535363741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03037184411405742</v>
+      </c>
+      <c r="F34">
+        <v>-0.03642716818700214</v>
+      </c>
+      <c r="G34">
+        <v>-0.00971612426239481</v>
+      </c>
+      <c r="H34">
+        <v>0.06174987240627634</v>
+      </c>
+      <c r="I34">
+        <v>-0.0194932085595529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001447895155247591</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006578652412558375</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02826168942037097</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004049737886074449</v>
+      </c>
+      <c r="F35">
+        <v>0.01096073440314102</v>
+      </c>
+      <c r="G35">
+        <v>0.005427040573542485</v>
+      </c>
+      <c r="H35">
+        <v>0.03671129805256836</v>
+      </c>
+      <c r="I35">
+        <v>-0.02156035370362809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008607801203764736</v>
+        <v>0.005607741818719938</v>
       </c>
       <c r="C36">
-        <v>0.005368369263075127</v>
+        <v>-0.01890554225885172</v>
       </c>
       <c r="D36">
-        <v>0.08770127184481362</v>
+        <v>0.07530221774078832</v>
       </c>
       <c r="E36">
-        <v>-0.04306612118008796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006163835944116103</v>
+      </c>
+      <c r="F36">
+        <v>0.03640632629130103</v>
+      </c>
+      <c r="G36">
+        <v>0.0006613477225077656</v>
+      </c>
+      <c r="H36">
+        <v>0.06435622532370085</v>
+      </c>
+      <c r="I36">
+        <v>0.0243624475643163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006467022986359876</v>
+        <v>0.0120739147102318</v>
       </c>
       <c r="C38">
-        <v>0.0055334886670842</v>
+        <v>-0.01483230973617695</v>
       </c>
       <c r="D38">
-        <v>0.08434753801374609</v>
+        <v>0.0841882389001704</v>
       </c>
       <c r="E38">
-        <v>-0.01170614958451174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01107387712487722</v>
+      </c>
+      <c r="F38">
+        <v>-0.007251747654296172</v>
+      </c>
+      <c r="G38">
+        <v>0.02084137459236981</v>
+      </c>
+      <c r="H38">
+        <v>0.0552049491031253</v>
+      </c>
+      <c r="I38">
+        <v>0.02705773744820221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0210499603166903</v>
+        <v>0.004706140911009465</v>
       </c>
       <c r="C39">
-        <v>0.05568248218852069</v>
+        <v>-0.07424692082283836</v>
       </c>
       <c r="D39">
-        <v>0.1158686358627736</v>
+        <v>0.1033016728106169</v>
       </c>
       <c r="E39">
-        <v>0.01861725827683399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04884476992466261</v>
+      </c>
+      <c r="F39">
+        <v>-0.002387927213894486</v>
+      </c>
+      <c r="G39">
+        <v>-0.008626940937476162</v>
+      </c>
+      <c r="H39">
+        <v>0.1109393412741194</v>
+      </c>
+      <c r="I39">
+        <v>-0.06925672858151473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01186119818031305</v>
+        <v>0.01039599195876169</v>
       </c>
       <c r="C40">
-        <v>0.01562963188752097</v>
+        <v>-0.0241850728221284</v>
       </c>
       <c r="D40">
-        <v>0.1192168897388377</v>
+        <v>0.09637541323846584</v>
       </c>
       <c r="E40">
-        <v>0.01859338426849503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04330954223693744</v>
+      </c>
+      <c r="F40">
+        <v>-0.02198139948049805</v>
+      </c>
+      <c r="G40">
+        <v>0.0636739146285433</v>
+      </c>
+      <c r="H40">
+        <v>0.08217216712598116</v>
+      </c>
+      <c r="I40">
+        <v>0.08933272814354082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01199973738901702</v>
+        <v>0.01262458094160573</v>
       </c>
       <c r="C41">
-        <v>0.005664651921966154</v>
+        <v>-0.01520859119014238</v>
       </c>
       <c r="D41">
-        <v>0.05168982385710422</v>
+        <v>0.04064320272192083</v>
       </c>
       <c r="E41">
-        <v>-0.03194717868420333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02052177163227238</v>
+      </c>
+      <c r="F41">
+        <v>0.01514928506449136</v>
+      </c>
+      <c r="G41">
+        <v>0.01019698562078971</v>
+      </c>
+      <c r="H41">
+        <v>0.0399259484642205</v>
+      </c>
+      <c r="I41">
+        <v>0.02839078682293499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006130959734338078</v>
+        <v>0.006361883240155678</v>
       </c>
       <c r="C43">
-        <v>0.006365371994098219</v>
+        <v>-0.01404386202042116</v>
       </c>
       <c r="D43">
-        <v>0.06230268203005164</v>
+        <v>0.04915483853019698</v>
       </c>
       <c r="E43">
-        <v>-0.01984573456489639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003205755303593983</v>
+      </c>
+      <c r="F43">
+        <v>0.01239084452470788</v>
+      </c>
+      <c r="G43">
+        <v>0.01006661816541908</v>
+      </c>
+      <c r="H43">
+        <v>0.05779345906244861</v>
+      </c>
+      <c r="I43">
+        <v>0.01187669313926383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01743983529361242</v>
+        <v>0.009236032734534038</v>
       </c>
       <c r="C44">
-        <v>0.02424688826533886</v>
+        <v>-0.04462393236291877</v>
       </c>
       <c r="D44">
-        <v>0.1124551092376628</v>
+        <v>0.117198684598158</v>
       </c>
       <c r="E44">
-        <v>-0.04558507678347149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01986343873670837</v>
+      </c>
+      <c r="F44">
+        <v>0.02936097946539784</v>
+      </c>
+      <c r="G44">
+        <v>0.02239206261961361</v>
+      </c>
+      <c r="H44">
+        <v>0.05566103311173787</v>
+      </c>
+      <c r="I44">
+        <v>-0.05848846176081496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007862384300196319</v>
+        <v>-0.001437511704730677</v>
       </c>
       <c r="C46">
-        <v>0.02691107597270242</v>
+        <v>-0.03809090584347943</v>
       </c>
       <c r="D46">
-        <v>0.09024155656141419</v>
+        <v>0.0830883288927854</v>
       </c>
       <c r="E46">
-        <v>-0.02149996067631872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02594461231218178</v>
+      </c>
+      <c r="F46">
+        <v>0.02940117015256035</v>
+      </c>
+      <c r="G46">
+        <v>0.01435740453023831</v>
+      </c>
+      <c r="H46">
+        <v>0.1454278916808688</v>
+      </c>
+      <c r="I46">
+        <v>0.002977870663219004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08844743188876739</v>
+        <v>0.03512081041565164</v>
       </c>
       <c r="C47">
-        <v>0.1018498308065256</v>
+        <v>-0.1242992791664369</v>
       </c>
       <c r="D47">
-        <v>0.06011988268513676</v>
+        <v>0.02465241381549963</v>
       </c>
       <c r="E47">
-        <v>-0.02889627563315574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02079454742266746</v>
+      </c>
+      <c r="F47">
+        <v>-0.01471421591389704</v>
+      </c>
+      <c r="G47">
+        <v>-0.04880811654721261</v>
+      </c>
+      <c r="H47">
+        <v>0.03859712212978653</v>
+      </c>
+      <c r="I47">
+        <v>0.1198475041739725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007394319799441349</v>
+        <v>0.004629745176413729</v>
       </c>
       <c r="C48">
-        <v>0.01490854014168829</v>
+        <v>-0.02721839630198825</v>
       </c>
       <c r="D48">
-        <v>0.09215343664366457</v>
+        <v>0.08076957018649211</v>
       </c>
       <c r="E48">
-        <v>-0.05724936172406701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00430713932172784</v>
+      </c>
+      <c r="F48">
+        <v>0.03862535513138044</v>
+      </c>
+      <c r="G48">
+        <v>0.002164629953881904</v>
+      </c>
+      <c r="H48">
+        <v>0.09631974091530292</v>
+      </c>
+      <c r="I48">
+        <v>0.006317353373448559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0429546776051772</v>
+        <v>0.01301660683295025</v>
       </c>
       <c r="C50">
-        <v>0.05959442636537991</v>
+        <v>-0.07391128571857711</v>
       </c>
       <c r="D50">
-        <v>0.06794063711236059</v>
+        <v>0.04587980947616756</v>
       </c>
       <c r="E50">
-        <v>-0.009605733400554947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.002161817881828511</v>
+      </c>
+      <c r="F50">
+        <v>0.004487188994981647</v>
+      </c>
+      <c r="G50">
+        <v>0.0186785387480877</v>
+      </c>
+      <c r="H50">
+        <v>0.03059208936854976</v>
+      </c>
+      <c r="I50">
+        <v>0.09406884565089974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002561008047327623</v>
+        <v>0.0007877586209462896</v>
       </c>
       <c r="C51">
-        <v>0.00340699259550836</v>
+        <v>-0.01460537173952605</v>
       </c>
       <c r="D51">
-        <v>0.05685391364944963</v>
+        <v>0.06206265463812697</v>
       </c>
       <c r="E51">
-        <v>-0.0008534744235033299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03713280414026934</v>
+      </c>
+      <c r="F51">
+        <v>0.03724802115826736</v>
+      </c>
+      <c r="G51">
+        <v>0.0312376551052335</v>
+      </c>
+      <c r="H51">
+        <v>0.04645921463633453</v>
+      </c>
+      <c r="I51">
+        <v>0.01843410067290462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1152740307519039</v>
+        <v>0.05985542762444142</v>
       </c>
       <c r="C53">
-        <v>0.1174121711620137</v>
+        <v>-0.1572043528069031</v>
       </c>
       <c r="D53">
-        <v>0.01914402400284388</v>
+        <v>-0.01289748485759373</v>
       </c>
       <c r="E53">
-        <v>-0.05608873142987579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03317969810219735</v>
+      </c>
+      <c r="F53">
+        <v>0.0437123242482723</v>
+      </c>
+      <c r="G53">
+        <v>0.002379159012734943</v>
+      </c>
+      <c r="H53">
+        <v>0.001010605142285199</v>
+      </c>
+      <c r="I53">
+        <v>0.06076474470571754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01658960986834098</v>
+        <v>0.0104358606626314</v>
       </c>
       <c r="C54">
-        <v>0.02146906835521956</v>
+        <v>-0.03878331808387393</v>
       </c>
       <c r="D54">
-        <v>0.09958941044940561</v>
+        <v>0.08299690024425978</v>
       </c>
       <c r="E54">
-        <v>-0.002123159295853212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01279518809386612</v>
+      </c>
+      <c r="F54">
+        <v>-0.001782458086046494</v>
+      </c>
+      <c r="G54">
+        <v>0.02458416283986683</v>
+      </c>
+      <c r="H54">
+        <v>0.09774417676567528</v>
+      </c>
+      <c r="I54">
+        <v>0.02508164661100034</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1018469783956512</v>
+        <v>0.04567127122662237</v>
       </c>
       <c r="C55">
-        <v>0.09930340713598768</v>
+        <v>-0.1293556053882442</v>
       </c>
       <c r="D55">
-        <v>0.008893001363633482</v>
+        <v>-0.02615115445691724</v>
       </c>
       <c r="E55">
-        <v>-0.01245740325263083</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001498520272742268</v>
+      </c>
+      <c r="F55">
+        <v>0.01152031955159918</v>
+      </c>
+      <c r="G55">
+        <v>0.0128336730257285</v>
+      </c>
+      <c r="H55">
+        <v>0.005909052069239847</v>
+      </c>
+      <c r="I55">
+        <v>0.07365676570963997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1417391331298203</v>
+        <v>0.06389243303621525</v>
       </c>
       <c r="C56">
-        <v>0.1328970487119548</v>
+        <v>-0.1880188527566372</v>
       </c>
       <c r="D56">
-        <v>0.004992627941573414</v>
+        <v>-0.02339945093817161</v>
       </c>
       <c r="E56">
-        <v>-0.0136270535820887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03236001522947322</v>
+      </c>
+      <c r="F56">
+        <v>0.01209793846459551</v>
+      </c>
+      <c r="G56">
+        <v>0.06038736295395797</v>
+      </c>
+      <c r="H56">
+        <v>0.0002200134084086422</v>
+      </c>
+      <c r="I56">
+        <v>0.08770653800517438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004127728572672698</v>
+        <v>0.003377446473147607</v>
       </c>
       <c r="C58">
-        <v>0.01028820734128007</v>
+        <v>-0.04589622886753413</v>
       </c>
       <c r="D58">
-        <v>0.2170832417461843</v>
+        <v>0.2852204847860983</v>
       </c>
       <c r="E58">
-        <v>-0.08263435625429577</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02336836149033843</v>
+      </c>
+      <c r="F58">
+        <v>0.09522547200175407</v>
+      </c>
+      <c r="G58">
+        <v>0.1215755314346881</v>
+      </c>
+      <c r="H58">
+        <v>-0.09895702426416793</v>
+      </c>
+      <c r="I58">
+        <v>-0.07592724067313474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1671259396809353</v>
+        <v>0.2461131695494993</v>
       </c>
       <c r="C59">
-        <v>-0.1582070850721273</v>
+        <v>0.06993982421731924</v>
       </c>
       <c r="D59">
-        <v>0.04704113187264224</v>
+        <v>0.06010448901047401</v>
       </c>
       <c r="E59">
-        <v>-0.03957552321378185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03554197553484852</v>
+      </c>
+      <c r="F59">
+        <v>0.01441262531143092</v>
+      </c>
+      <c r="G59">
+        <v>0.002762036935586142</v>
+      </c>
+      <c r="H59">
+        <v>-0.008593710777645812</v>
+      </c>
+      <c r="I59">
+        <v>0.05620116237645392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.198461299460496</v>
+        <v>0.1545890246908921</v>
       </c>
       <c r="C60">
-        <v>0.0893758626440757</v>
+        <v>-0.1703127500849448</v>
       </c>
       <c r="D60">
-        <v>0.188446227587684</v>
+        <v>0.09123285138518092</v>
       </c>
       <c r="E60">
-        <v>0.1765932344536219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2302332527796106</v>
+      </c>
+      <c r="F60">
+        <v>-0.1593990054530245</v>
+      </c>
+      <c r="G60">
+        <v>-0.2279692894406122</v>
+      </c>
+      <c r="H60">
+        <v>-0.2087649015421809</v>
+      </c>
+      <c r="I60">
+        <v>0.007057036742935176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03128144543235931</v>
+        <v>0.01258920198669294</v>
       </c>
       <c r="C61">
-        <v>0.05180321990114237</v>
+        <v>-0.07057017954562408</v>
       </c>
       <c r="D61">
-        <v>0.1030586960738368</v>
+        <v>0.08152395198944368</v>
       </c>
       <c r="E61">
-        <v>0.00754534272480186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03669565770102797</v>
+      </c>
+      <c r="F61">
+        <v>-0.01286411608181212</v>
+      </c>
+      <c r="G61">
+        <v>-0.0231745984626102</v>
+      </c>
+      <c r="H61">
+        <v>0.09764520852335146</v>
+      </c>
+      <c r="I61">
+        <v>-0.02244785198846102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009112864537240167</v>
+        <v>0.002120667720646449</v>
       </c>
       <c r="C63">
-        <v>0.02544231627361038</v>
+        <v>-0.03537647733532241</v>
       </c>
       <c r="D63">
-        <v>0.09102344690321067</v>
+        <v>0.06992739185399725</v>
       </c>
       <c r="E63">
-        <v>-0.01373324543362507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02929393259228927</v>
+      </c>
+      <c r="F63">
+        <v>0.02143013493653186</v>
+      </c>
+      <c r="G63">
+        <v>0.007008907316535266</v>
+      </c>
+      <c r="H63">
+        <v>0.06499318213179728</v>
+      </c>
+      <c r="I63">
+        <v>-0.01006670971689173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06531851245639256</v>
+        <v>0.02239329316964316</v>
       </c>
       <c r="C64">
-        <v>0.07864107157067933</v>
+        <v>-0.1038929122069579</v>
       </c>
       <c r="D64">
-        <v>0.03909899924281509</v>
+        <v>0.02616471902688594</v>
       </c>
       <c r="E64">
-        <v>-0.02261885126184807</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02564601919713554</v>
+      </c>
+      <c r="F64">
+        <v>0.0235990921570179</v>
+      </c>
+      <c r="G64">
+        <v>-0.04774594594812252</v>
+      </c>
+      <c r="H64">
+        <v>0.1128875039597426</v>
+      </c>
+      <c r="I64">
+        <v>-0.06545604721233717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0257230948988935</v>
+        <v>0.02098660603369316</v>
       </c>
       <c r="C65">
-        <v>0.01571947417354452</v>
+        <v>-0.03956359601977746</v>
       </c>
       <c r="D65">
-        <v>0.1180212347052887</v>
+        <v>0.1199825137131275</v>
       </c>
       <c r="E65">
-        <v>-0.006275637670304752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04579922032145321</v>
+      </c>
+      <c r="F65">
+        <v>0.007392501743767611</v>
+      </c>
+      <c r="G65">
+        <v>-0.01919194100491235</v>
+      </c>
+      <c r="H65">
+        <v>0.05455451240965576</v>
+      </c>
+      <c r="I65">
+        <v>-0.0236575846310568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02384205489850129</v>
+        <v>0.002640755609098068</v>
       </c>
       <c r="C66">
-        <v>0.06297864874892348</v>
+        <v>-0.08940453912282312</v>
       </c>
       <c r="D66">
-        <v>0.1207470931771416</v>
+        <v>0.1284639466408412</v>
       </c>
       <c r="E66">
-        <v>0.02056124354936342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03397014795370336</v>
+      </c>
+      <c r="F66">
+        <v>-0.009919628489644654</v>
+      </c>
+      <c r="G66">
+        <v>0.009688440627425337</v>
+      </c>
+      <c r="H66">
+        <v>0.0655777120623881</v>
+      </c>
+      <c r="I66">
+        <v>-0.07009588834416319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02651593241209216</v>
+        <v>0.02322118032336453</v>
       </c>
       <c r="C67">
-        <v>0.01678705335403577</v>
+        <v>-0.02719244367109188</v>
       </c>
       <c r="D67">
-        <v>0.03920803107005159</v>
+        <v>0.03385422390029542</v>
       </c>
       <c r="E67">
-        <v>0.01425727363608716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004552820336357232</v>
+      </c>
+      <c r="F67">
+        <v>-0.02904467896552955</v>
+      </c>
+      <c r="G67">
+        <v>0.009724543916906178</v>
+      </c>
+      <c r="H67">
+        <v>0.06165471875996459</v>
+      </c>
+      <c r="I67">
+        <v>0.01856935198039316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1931941940162308</v>
+        <v>0.2691583362397594</v>
       </c>
       <c r="C68">
-        <v>-0.1726118032673179</v>
+        <v>0.07092946251015481</v>
       </c>
       <c r="D68">
-        <v>0.03114624423933465</v>
+        <v>0.03505932348351168</v>
       </c>
       <c r="E68">
-        <v>-0.01239417497554082</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004535120345568387</v>
+      </c>
+      <c r="F68">
+        <v>0.02982750015145287</v>
+      </c>
+      <c r="G68">
+        <v>0.06624598796503577</v>
+      </c>
+      <c r="H68">
+        <v>-0.03759991202869967</v>
+      </c>
+      <c r="I68">
+        <v>0.08631046585197069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06691323752656551</v>
+        <v>0.02115175845401523</v>
       </c>
       <c r="C69">
-        <v>0.1135025035073034</v>
+        <v>-0.11936700897604</v>
       </c>
       <c r="D69">
-        <v>0.08359990558502552</v>
+        <v>0.03682246799747596</v>
       </c>
       <c r="E69">
-        <v>-0.01500007369131572</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002634233511693266</v>
+      </c>
+      <c r="F69">
+        <v>-0.01549567871065023</v>
+      </c>
+      <c r="G69">
+        <v>-0.03326253655799017</v>
+      </c>
+      <c r="H69">
+        <v>0.03702774908249139</v>
+      </c>
+      <c r="I69">
+        <v>0.0800192145327857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1997959067996727</v>
+        <v>0.2707555890779449</v>
       </c>
       <c r="C71">
-        <v>-0.1923872931049698</v>
+        <v>0.0866313519972149</v>
       </c>
       <c r="D71">
-        <v>0.02544376715361391</v>
+        <v>0.02218456357143906</v>
       </c>
       <c r="E71">
-        <v>-0.01553611962609641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.008110638087270201</v>
+      </c>
+      <c r="F71">
+        <v>0.01242937623916094</v>
+      </c>
+      <c r="G71">
+        <v>0.03124488307612788</v>
+      </c>
+      <c r="H71">
+        <v>0.01564216136709141</v>
+      </c>
+      <c r="I71">
+        <v>0.1379709540728792</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1112202566239552</v>
+        <v>0.05918391860536308</v>
       </c>
       <c r="C72">
-        <v>0.06598832076612472</v>
+        <v>-0.1220610712350897</v>
       </c>
       <c r="D72">
-        <v>0.1007443678191241</v>
+        <v>0.06269695333934069</v>
       </c>
       <c r="E72">
-        <v>0.04940701333599628</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08576298314732271</v>
+      </c>
+      <c r="F72">
+        <v>-0.01501561077019406</v>
+      </c>
+      <c r="G72">
+        <v>-0.02238610948358934</v>
+      </c>
+      <c r="H72">
+        <v>0.05631212993911516</v>
+      </c>
+      <c r="I72">
+        <v>-0.06865868460519087</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1835784913146992</v>
+        <v>0.1392639920899351</v>
       </c>
       <c r="C73">
-        <v>0.05502070547343844</v>
+        <v>-0.1427746276229754</v>
       </c>
       <c r="D73">
-        <v>0.2644796462150057</v>
+        <v>0.1024054978909747</v>
       </c>
       <c r="E73">
-        <v>0.2718714481181614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3776001812829902</v>
+      </c>
+      <c r="F73">
+        <v>-0.240954571478907</v>
+      </c>
+      <c r="G73">
+        <v>-0.4193250680348944</v>
+      </c>
+      <c r="H73">
+        <v>-0.1513213735341052</v>
+      </c>
+      <c r="I73">
+        <v>-0.0385335835393945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1144622844765497</v>
+        <v>0.05380692074540955</v>
       </c>
       <c r="C74">
-        <v>0.1091826282003845</v>
+        <v>-0.1480911215160643</v>
       </c>
       <c r="D74">
-        <v>-0.02052780874934419</v>
+        <v>-0.03840773463986195</v>
       </c>
       <c r="E74">
-        <v>-0.04106468733722362</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01057405033294936</v>
+      </c>
+      <c r="F74">
+        <v>0.03906461337527718</v>
+      </c>
+      <c r="G74">
+        <v>0.005165755231960919</v>
+      </c>
+      <c r="H74">
+        <v>-0.01178568358059231</v>
+      </c>
+      <c r="I74">
+        <v>0.09456833783515513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.245659122233921</v>
+        <v>0.118422875526063</v>
       </c>
       <c r="C75">
-        <v>0.183823307312394</v>
+        <v>-0.2689694771621916</v>
       </c>
       <c r="D75">
-        <v>-0.1108296781151768</v>
+        <v>-0.131865808688084</v>
       </c>
       <c r="E75">
-        <v>0.01359615905947282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09052576868001354</v>
+      </c>
+      <c r="F75">
+        <v>-0.03967311641718328</v>
+      </c>
+      <c r="G75">
+        <v>0.1020837054084354</v>
+      </c>
+      <c r="H75">
+        <v>-0.003309135551049843</v>
+      </c>
+      <c r="I75">
+        <v>0.06441806647208431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1480376792455661</v>
+        <v>0.06867315423868808</v>
       </c>
       <c r="C76">
-        <v>0.1284581888829829</v>
+        <v>-0.1817527609634584</v>
       </c>
       <c r="D76">
-        <v>0.0181326074849663</v>
+        <v>-0.02995443557224041</v>
       </c>
       <c r="E76">
-        <v>-0.01511454994767671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02542803987023667</v>
+      </c>
+      <c r="F76">
+        <v>0.001520091229056628</v>
+      </c>
+      <c r="G76">
+        <v>0.04287961730970317</v>
+      </c>
+      <c r="H76">
+        <v>0.02797662511905068</v>
+      </c>
+      <c r="I76">
+        <v>0.07919396350702934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01492419009427259</v>
+        <v>0.02354042338767841</v>
       </c>
       <c r="C77">
-        <v>0.07490907746304458</v>
+        <v>-0.09251028545878734</v>
       </c>
       <c r="D77">
-        <v>0.05248008969599983</v>
+        <v>0.2796230962054061</v>
       </c>
       <c r="E77">
-        <v>-0.219111266470939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7651104022937564</v>
+      </c>
+      <c r="F77">
+        <v>-0.3253136496205337</v>
+      </c>
+      <c r="G77">
+        <v>-0.2907770361454131</v>
+      </c>
+      <c r="H77">
+        <v>-0.2261152974138946</v>
+      </c>
+      <c r="I77">
+        <v>0.02427977340748656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02813189291058344</v>
+        <v>0.0141979060560536</v>
       </c>
       <c r="C78">
-        <v>0.06343866885993528</v>
+        <v>-0.08316456726418378</v>
       </c>
       <c r="D78">
-        <v>0.1472419209726779</v>
+        <v>0.1330035532189573</v>
       </c>
       <c r="E78">
-        <v>-0.04567904315507081</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0475076447852919</v>
+      </c>
+      <c r="F78">
+        <v>0.04846954112453459</v>
+      </c>
+      <c r="G78">
+        <v>0.03082541380246373</v>
+      </c>
+      <c r="H78">
+        <v>0.009872076026215978</v>
+      </c>
+      <c r="I78">
+        <v>0.1061967693877709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09961945993536538</v>
+        <v>0.03644001333809744</v>
       </c>
       <c r="C79">
-        <v>0.1623979822910681</v>
+        <v>-0.1850823656168669</v>
       </c>
       <c r="D79">
-        <v>-0.1023498341841767</v>
+        <v>-0.06826328027964657</v>
       </c>
       <c r="E79">
-        <v>-0.7942154405551473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1240489491862826</v>
+      </c>
+      <c r="F79">
+        <v>0.8076357803581556</v>
+      </c>
+      <c r="G79">
+        <v>-0.3865501172957896</v>
+      </c>
+      <c r="H79">
+        <v>-0.2150517310178737</v>
+      </c>
+      <c r="I79">
+        <v>-0.1272680790333032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007350126150692918</v>
+        <v>0.0002322397222804084</v>
       </c>
       <c r="C80">
-        <v>0.04554813455622287</v>
+        <v>-0.04600488672378112</v>
       </c>
       <c r="D80">
-        <v>0.04736089631617794</v>
+        <v>0.0427992366149369</v>
       </c>
       <c r="E80">
-        <v>0.004594532754819873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.025345882214881</v>
+      </c>
+      <c r="F80">
+        <v>0.007947513292108773</v>
+      </c>
+      <c r="G80">
+        <v>0.02586172189581917</v>
+      </c>
+      <c r="H80">
+        <v>0.01881411987177928</v>
+      </c>
+      <c r="I80">
+        <v>0.06335162000041951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.125917697337332</v>
+        <v>0.04796969154913693</v>
       </c>
       <c r="C81">
-        <v>0.1257965727897598</v>
+        <v>-0.1657375826699479</v>
       </c>
       <c r="D81">
-        <v>-0.07302508864714069</v>
+        <v>-0.07804228766722628</v>
       </c>
       <c r="E81">
-        <v>-0.067447365111991</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07191773154555445</v>
+      </c>
+      <c r="F81">
+        <v>0.04377961805825507</v>
+      </c>
+      <c r="G81">
+        <v>0.04853033271019839</v>
+      </c>
+      <c r="H81">
+        <v>0.06238978877029758</v>
+      </c>
+      <c r="I81">
+        <v>0.1147223669403332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2703915738133013</v>
+        <v>0.1039757199981247</v>
       </c>
       <c r="C82">
-        <v>0.2800351815683041</v>
+        <v>-0.3294614021573227</v>
       </c>
       <c r="D82">
-        <v>-0.2000790278590072</v>
+        <v>-0.221186513511781</v>
       </c>
       <c r="E82">
-        <v>0.1250190459043448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05012333928766507</v>
+      </c>
+      <c r="F82">
+        <v>-0.1255014079311623</v>
+      </c>
+      <c r="G82">
+        <v>0.08439983519891292</v>
+      </c>
+      <c r="H82">
+        <v>0.09944546642376551</v>
+      </c>
+      <c r="I82">
+        <v>0.05559420675887175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003219291763913621</v>
+        <v>-0.01400815967595342</v>
       </c>
       <c r="C83">
-        <v>0.05270073360459868</v>
+        <v>-0.03282138679873092</v>
       </c>
       <c r="D83">
-        <v>0.01255205339135828</v>
+        <v>0.03578650100184184</v>
       </c>
       <c r="E83">
-        <v>-0.05820276560635931</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09280650887485242</v>
+      </c>
+      <c r="F83">
+        <v>0.03668078407471063</v>
+      </c>
+      <c r="G83">
+        <v>0.06790823790773501</v>
+      </c>
+      <c r="H83">
+        <v>0.0330244062138993</v>
+      </c>
+      <c r="I83">
+        <v>0.459512903563222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001090558093442615</v>
+        <v>-0.002352686260553914</v>
       </c>
       <c r="C84">
-        <v>-0.001878595987560781</v>
+        <v>-0.01609681197211298</v>
       </c>
       <c r="D84">
-        <v>0.004604077774448641</v>
+        <v>0.04415738025960292</v>
       </c>
       <c r="E84">
-        <v>-0.0005200765517681129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01183707222016703</v>
+      </c>
+      <c r="F84">
+        <v>0.01857101386076758</v>
+      </c>
+      <c r="G84">
+        <v>0.05159644212627328</v>
+      </c>
+      <c r="H84">
+        <v>0.002218568102168218</v>
+      </c>
+      <c r="I84">
+        <v>-0.05329132334621032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1498952114394619</v>
+        <v>0.06324197617377049</v>
       </c>
       <c r="C85">
-        <v>0.1317079816250421</v>
+        <v>-0.1847842955488419</v>
       </c>
       <c r="D85">
-        <v>-0.04170317713187086</v>
+        <v>-0.08761725264608762</v>
       </c>
       <c r="E85">
-        <v>-0.02874655532793978</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.00223561422193582</v>
+      </c>
+      <c r="F85">
+        <v>0.0769664774207591</v>
+      </c>
+      <c r="G85">
+        <v>0.03301255845141853</v>
+      </c>
+      <c r="H85">
+        <v>0.003800804278436956</v>
+      </c>
+      <c r="I85">
+        <v>0.07413778029395345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01295160428770689</v>
+        <v>0.01054619048266743</v>
       </c>
       <c r="C86">
-        <v>0.01109943584028611</v>
+        <v>-0.0287636341819841</v>
       </c>
       <c r="D86">
-        <v>0.07697687185187897</v>
+        <v>0.105567339661197</v>
       </c>
       <c r="E86">
-        <v>-0.0509287236422591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04035315095901988</v>
+      </c>
+      <c r="F86">
+        <v>-0.01509834422328291</v>
+      </c>
+      <c r="G86">
+        <v>-0.02851351452140028</v>
+      </c>
+      <c r="H86">
+        <v>0.000642442295588125</v>
+      </c>
+      <c r="I86">
+        <v>0.08423181814307405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01534299154103407</v>
+        <v>0.008633794024347673</v>
       </c>
       <c r="C87">
-        <v>0.02633835259043949</v>
+        <v>-0.05305333160628709</v>
       </c>
       <c r="D87">
-        <v>0.1288537631967323</v>
+        <v>0.143986392455722</v>
       </c>
       <c r="E87">
-        <v>-0.04954888018691594</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.003951990162107131</v>
+      </c>
+      <c r="F87">
+        <v>0.04086950091635006</v>
+      </c>
+      <c r="G87">
+        <v>0.06190543940372553</v>
+      </c>
+      <c r="H87">
+        <v>0.02626093403074295</v>
+      </c>
+      <c r="I87">
+        <v>-0.0112169341371805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05859764439104965</v>
+        <v>0.03055260975154047</v>
       </c>
       <c r="C88">
-        <v>0.04468540598678005</v>
+        <v>-0.06791548833174875</v>
       </c>
       <c r="D88">
-        <v>0.02690418532689614</v>
+        <v>0.0054587496431925</v>
       </c>
       <c r="E88">
-        <v>-0.03077015123948702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01356382536579017</v>
+      </c>
+      <c r="F88">
+        <v>0.02172548537628257</v>
+      </c>
+      <c r="G88">
+        <v>0.003189901580742482</v>
+      </c>
+      <c r="H88">
+        <v>0.02643276706320781</v>
+      </c>
+      <c r="I88">
+        <v>0.01846588550997693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2980962907723676</v>
+        <v>0.410398663908365</v>
       </c>
       <c r="C89">
-        <v>-0.3521850879858462</v>
+        <v>0.1725942292619755</v>
       </c>
       <c r="D89">
-        <v>0.009684180839333322</v>
+        <v>0.02102493592061643</v>
       </c>
       <c r="E89">
-        <v>-0.09909133154851769</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02579074715208327</v>
+      </c>
+      <c r="F89">
+        <v>0.07991844206687601</v>
+      </c>
+      <c r="G89">
+        <v>0.06451653517309121</v>
+      </c>
+      <c r="H89">
+        <v>0.1410854107631258</v>
+      </c>
+      <c r="I89">
+        <v>-0.2131284383098644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2393341801048361</v>
+        <v>0.314142803832509</v>
       </c>
       <c r="C90">
-        <v>-0.2572102389772382</v>
+        <v>0.1139674923821144</v>
       </c>
       <c r="D90">
-        <v>0.03809729406201165</v>
+        <v>0.03418571382594515</v>
       </c>
       <c r="E90">
-        <v>0.007163439672286236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01567610172215389</v>
+      </c>
+      <c r="F90">
+        <v>-0.01783954206837911</v>
+      </c>
+      <c r="G90">
+        <v>0.05903132373413711</v>
+      </c>
+      <c r="H90">
+        <v>-0.02235233355734257</v>
+      </c>
+      <c r="I90">
+        <v>0.07942960505485687</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1652592255619645</v>
+        <v>0.07318117586394333</v>
       </c>
       <c r="C91">
-        <v>0.1771148875681805</v>
+        <v>-0.2118232914440482</v>
       </c>
       <c r="D91">
-        <v>-0.09609092988683643</v>
+        <v>-0.105576939412317</v>
       </c>
       <c r="E91">
-        <v>-0.0964525918012515</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06594162038111345</v>
+      </c>
+      <c r="F91">
+        <v>0.06668204546608944</v>
+      </c>
+      <c r="G91">
+        <v>0.01025041223128057</v>
+      </c>
+      <c r="H91">
+        <v>0.005198642554873885</v>
+      </c>
+      <c r="I91">
+        <v>0.1026096755028537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2221583767954586</v>
+        <v>0.3371653760594932</v>
       </c>
       <c r="C92">
-        <v>-0.2728399336636728</v>
+        <v>0.1478612823165368</v>
       </c>
       <c r="D92">
-        <v>-0.0525084337195325</v>
+        <v>-0.001076346777789875</v>
       </c>
       <c r="E92">
-        <v>-0.05506951606407298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07298844889427471</v>
+      </c>
+      <c r="F92">
+        <v>0.01411392039115109</v>
+      </c>
+      <c r="G92">
+        <v>0.01897659522707293</v>
+      </c>
+      <c r="H92">
+        <v>0.03046680705123994</v>
+      </c>
+      <c r="I92">
+        <v>-0.236672660850658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2621166071037271</v>
+        <v>0.3330585901243946</v>
       </c>
       <c r="C93">
-        <v>-0.268785255353143</v>
+        <v>0.121970079493243</v>
       </c>
       <c r="D93">
-        <v>0.01422177279351947</v>
+        <v>-0.01534108082524218</v>
       </c>
       <c r="E93">
-        <v>-0.002805467701692088</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02728270862809075</v>
+      </c>
+      <c r="F93">
+        <v>0.01094874583303428</v>
+      </c>
+      <c r="G93">
+        <v>-0.02068492794468931</v>
+      </c>
+      <c r="H93">
+        <v>-0.003723405086628956</v>
+      </c>
+      <c r="I93">
+        <v>0.06279878156771811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3128422391905106</v>
+        <v>0.1423855106019236</v>
       </c>
       <c r="C94">
-        <v>0.2516424552720572</v>
+        <v>-0.3593529574927848</v>
       </c>
       <c r="D94">
-        <v>-0.3597204391522695</v>
+        <v>-0.3406997858320961</v>
       </c>
       <c r="E94">
-        <v>0.2011499046913839</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04669363694717155</v>
+      </c>
+      <c r="F94">
+        <v>-0.1114584819278363</v>
+      </c>
+      <c r="G94">
+        <v>0.3047245966683583</v>
+      </c>
+      <c r="H94">
+        <v>-0.05717253752997133</v>
+      </c>
+      <c r="I94">
+        <v>-0.339407712195514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01645285169671497</v>
+        <v>0.01827361380695658</v>
       </c>
       <c r="C95">
-        <v>0.03556778326546589</v>
+        <v>-0.05915731925862087</v>
       </c>
       <c r="D95">
-        <v>0.04423222857199181</v>
+        <v>0.1083747192907218</v>
       </c>
       <c r="E95">
-        <v>-0.09455862974825506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1907143189722403</v>
+      </c>
+      <c r="F95">
+        <v>-0.07507944103652689</v>
+      </c>
+      <c r="G95">
+        <v>-0.1229611409036405</v>
+      </c>
+      <c r="H95">
+        <v>0.3903596910816509</v>
+      </c>
+      <c r="I95">
+        <v>-0.4625618963665201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001068738870071888</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-8.69395400061511e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001139138979096217</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001683447330246121</v>
+      </c>
+      <c r="F97">
+        <v>-0.001908116059022814</v>
+      </c>
+      <c r="G97">
+        <v>-0.001835225047541543</v>
+      </c>
+      <c r="H97">
+        <v>0.0001512999546227639</v>
+      </c>
+      <c r="I97">
+        <v>-0.002431773112632848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1535249789869641</v>
+        <v>0.1162218727646451</v>
       </c>
       <c r="C98">
-        <v>0.0717148089570146</v>
+        <v>-0.1427480411799029</v>
       </c>
       <c r="D98">
-        <v>0.1448593728323032</v>
+        <v>0.06331544367687382</v>
       </c>
       <c r="E98">
-        <v>0.1991657920513897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2677285423389054</v>
+      </c>
+      <c r="F98">
+        <v>-0.1701551388542038</v>
+      </c>
+      <c r="G98">
+        <v>-0.2691222142288222</v>
+      </c>
+      <c r="H98">
+        <v>-0.1643496025569432</v>
+      </c>
+      <c r="I98">
+        <v>-0.02069289253521462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0005214887953685991</v>
+        <v>-0.002622047281283671</v>
       </c>
       <c r="C101">
-        <v>0.02067778357648697</v>
+        <v>-0.02874264604402588</v>
       </c>
       <c r="D101">
-        <v>0.09615441006796938</v>
+        <v>0.09897103029296235</v>
       </c>
       <c r="E101">
-        <v>-0.0159043303072263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03833253887992012</v>
+      </c>
+      <c r="F101">
+        <v>0.03703779193912844</v>
+      </c>
+      <c r="G101">
+        <v>0.007615683961484431</v>
+      </c>
+      <c r="H101">
+        <v>0.1438595018611747</v>
+      </c>
+      <c r="I101">
+        <v>0.01864323807335991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1160026033709474</v>
+        <v>0.03557148347175471</v>
       </c>
       <c r="C102">
-        <v>0.1488969276407447</v>
+        <v>-0.1528187675997494</v>
       </c>
       <c r="D102">
-        <v>-0.06625444361475061</v>
+        <v>-0.09053668451085008</v>
       </c>
       <c r="E102">
-        <v>0.04351405787324223</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.02978250249895404</v>
+      </c>
+      <c r="F102">
+        <v>-0.06791640307907271</v>
+      </c>
+      <c r="G102">
+        <v>-0.01155551124819775</v>
+      </c>
+      <c r="H102">
+        <v>0.05106337947449659</v>
+      </c>
+      <c r="I102">
+        <v>0.02325521998034232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
